--- a/Dummy_Potato_Market_Data.xlsx
+++ b/Dummy_Potato_Market_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sheshan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD435069-8288-4823-B020-C958286FEB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F77FA7-E5AA-4F7A-B493-8F1AF3EAED29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,13 +43,13 @@
     <t>Dambulla_Rainfall</t>
   </si>
   <si>
-    <t>Peliyagoda</t>
+    <t>peliyagoda average Potato price</t>
   </si>
   <si>
-    <t>Kandy</t>
+    <t>kandy average Potato price</t>
   </si>
   <si>
-    <t>Dambulla</t>
+    <t>dambulla average Potato price</t>
   </si>
 </sst>
 </file>
